--- a/算法训练营题目汇总-模板 -week08.xlsx
+++ b/算法训练营题目汇总-模板 -week08.xlsx
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3695,16 +3695,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B43"/>
     <mergeCell ref="A9:A43"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/算法训练营题目汇总-模板 -week08.xlsx
+++ b/算法训练营题目汇总-模板 -week08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3181,7 +3181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/算法训练营题目汇总-模板 -week08.xlsx
+++ b/算法训练营题目汇总-模板 -week08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="205">
-  <si>
-    <t>已完成</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="204">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -957,7 +954,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,9 +1007,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1340,265 +1334,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="70.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="70.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="18">
-        <v>283</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22" t="s">
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1"/>
-    <row r="25" spans="1:5" ht="15" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15" customHeight="1"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1"/>
-    <row r="28" spans="1:5" ht="15" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15" customHeight="1"/>
-    <row r="30" spans="1:5" ht="15" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15" customHeight="1"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1"/>
+    <row r="25" spans="1:4" ht="15" customHeight="1"/>
+    <row r="26" spans="1:4" ht="15" customHeight="1"/>
+    <row r="27" spans="1:4" ht="15" customHeight="1"/>
+    <row r="28" spans="1:4" ht="15" customHeight="1"/>
+    <row r="29" spans="1:4" ht="15" customHeight="1"/>
+    <row r="30" spans="1:4" ht="15" customHeight="1"/>
+    <row r="31" spans="1:4" ht="15" customHeight="1"/>
+    <row r="32" spans="1:4" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -1734,33 +1697,33 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId23"/>
@@ -1784,235 +1747,235 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -2087,193 +2050,193 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>83</v>
       </c>
+      <c r="B2" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -2342,299 +2305,299 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -2703,197 +2666,197 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
+      <c r="D4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="D7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22" t="s">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2954,7 +2917,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2968,168 +2931,160 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -3181,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3196,500 +3151,500 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B9" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="11" t="s">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>116</v>
+      <c r="D43" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="E43" s="6"/>
     </row>
